--- a/ignite/性能测试/结果/分布式内存库测试用例（第四版万兆）.xlsx
+++ b/ignite/性能测试/结果/分布式内存库测试用例（第四版万兆）.xlsx
@@ -7962,7 +7962,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
